--- a/data/trans_orig/P20D1_2023-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P20D1_2023-Clase-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>7565</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3415</v>
+        <v>3052</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>11452</v>
+        <v>10998</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5432813235288771</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2452469068144452</v>
+        <v>0.2191660535331225</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8223979611510005</v>
+        <v>0.7898209521556404</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>4</v>
@@ -762,7 +762,7 @@
         <v>2430</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>625</v>
+        <v>606</v>
       </c>
       <c r="M4" s="5" t="n">
         <v>3779</v>
@@ -771,7 +771,7 @@
         <v>0.643031285159797</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1652619467516783</v>
+        <v>0.1603682262893877</v>
       </c>
       <c r="P4" s="6" t="n">
         <v>1</v>
@@ -783,19 +783,19 @@
         <v>9995</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>5127</v>
+        <v>5335</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>13448</v>
+        <v>13942</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5645754225515051</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2895740779286233</v>
+        <v>0.3013592182286031</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7596173950551428</v>
+        <v>0.7875211564648983</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>5426</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1916</v>
+        <v>2065</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>10026</v>
+        <v>9882</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3896604065648553</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1375629733622811</v>
+        <v>0.1483049194224918</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7199812737911886</v>
+        <v>0.7096917651200726</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>0</v>
@@ -846,19 +846,19 @@
         <v>5426</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2087</v>
+        <v>1947</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>10809</v>
+        <v>10806</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3064777451690488</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1179060702496403</v>
+        <v>0.1099703662826746</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.610517423082834</v>
+        <v>0.6103626613550278</v>
       </c>
     </row>
     <row r="6">
@@ -878,7 +878,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>3186</v>
+        <v>3437</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.06705826990626745</v>
@@ -887,7 +887,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2288328551639879</v>
+        <v>0.2468235521195758</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>2</v>
@@ -899,7 +899,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>3156</v>
+        <v>3172</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.356968714840203</v>
@@ -908,7 +908,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.8350803469974221</v>
+        <v>0.8395021432720992</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>4</v>
@@ -917,19 +917,19 @@
         <v>2283</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>509</v>
+        <v>591</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>5514</v>
+        <v>5560</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.128946832279446</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.02875492370616539</v>
+        <v>0.03337929976247797</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3114393320404371</v>
+        <v>0.3140331286821264</v>
       </c>
     </row>
     <row r="7">
@@ -1021,19 +1021,19 @@
         <v>5233</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2256</v>
+        <v>2229</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>7254</v>
+        <v>7267</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.6780548928365879</v>
+        <v>0.678054892836588</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2923665068268038</v>
+        <v>0.2888117276798615</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.940033965495241</v>
+        <v>0.9417277163161754</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2</v>
@@ -1045,7 +1045,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>4347</v>
+        <v>4552</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1511944629733404</v>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.443647153512818</v>
+        <v>0.4645255256026812</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>8</v>
@@ -1063,19 +1063,19 @@
         <v>6714</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2973</v>
+        <v>3184</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>10960</v>
+        <v>10667</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3833009281901339</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1697551881964886</v>
+        <v>0.1817830604439728</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6257275059774537</v>
+        <v>0.6090088945423946</v>
       </c>
     </row>
     <row r="9">
@@ -1092,19 +1092,19 @@
         <v>2484</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>5461</v>
+        <v>5493</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.321945107163412</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.05996603450475888</v>
+        <v>0.0583593474123014</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.7076334931731936</v>
+        <v>0.7118094255673495</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>3</v>
@@ -1113,19 +1113,19 @@
         <v>1940</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>4609</v>
+        <v>4674</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1979733356075442</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.04219746149697795</v>
+        <v>0.04300757016186467</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.4704027939474048</v>
+        <v>0.4770077444299544</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>6</v>
@@ -1134,19 +1134,19 @@
         <v>4424</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>1702</v>
+        <v>1756</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>8658</v>
+        <v>8643</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2525886531594148</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.09717050490445628</v>
+        <v>0.1002736378276162</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.4942976569257753</v>
+        <v>0.4934161472664815</v>
       </c>
     </row>
     <row r="10">
@@ -1176,19 +1176,19 @@
         <v>6378</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>3476</v>
+        <v>3553</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>8519</v>
+        <v>8560</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6508322014191154</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3547000056039351</v>
+        <v>0.36255779564235</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8693438607008498</v>
+        <v>0.8735348269601656</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>8</v>
@@ -1197,19 +1197,19 @@
         <v>6378</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>3140</v>
+        <v>3254</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>10769</v>
+        <v>10941</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3641104186504512</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1792860682491893</v>
+        <v>0.1857553848290556</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6148075364273983</v>
+        <v>0.6246276441562337</v>
       </c>
     </row>
     <row r="11">
@@ -1301,19 +1301,19 @@
         <v>11775</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>6949</v>
+        <v>7517</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>15097</v>
+        <v>15525</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.6667715677557725</v>
+        <v>0.6667715677557726</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3935036416353581</v>
+        <v>0.4256899611751975</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8549403110244491</v>
+        <v>0.879131336504513</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>2</v>
@@ -1325,16 +1325,16 @@
         <v>0</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>3163</v>
+        <v>3114</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.2441658242919001</v>
+        <v>0.2441658242919</v>
       </c>
       <c r="O12" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.671347075300643</v>
+        <v>0.6609852380771938</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>14</v>
@@ -1343,19 +1343,19 @@
         <v>12925</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>8269</v>
+        <v>8390</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>17454</v>
+        <v>17150</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.5777725677083526</v>
+        <v>0.5777725677083528</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3696679778241531</v>
+        <v>0.375051732902075</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.7802265754348755</v>
+        <v>0.7666669167275397</v>
       </c>
     </row>
     <row r="13">
@@ -1372,19 +1372,19 @@
         <v>2876</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>512</v>
+        <v>576</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>7786</v>
+        <v>7584</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1628459184592903</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02899767355681917</v>
+        <v>0.0325930944202399</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4408801525594621</v>
+        <v>0.4294678245900903</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1</v>
@@ -1396,7 +1396,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>2909</v>
+        <v>2882</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1443621436863904</v>
@@ -1405,7 +1405,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6173970296868714</v>
+        <v>0.6118376521899622</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>4</v>
@@ -1414,19 +1414,19 @@
         <v>3556</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1061</v>
+        <v>964</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>8041</v>
+        <v>8604</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1589533128869989</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04744418039940593</v>
+        <v>0.04310128615337698</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3594460776608201</v>
+        <v>0.3846172331798836</v>
       </c>
     </row>
     <row r="14">
@@ -1443,19 +1443,19 @@
         <v>3009</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>7655</v>
+        <v>7762</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1703825137849371</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.02911917736211482</v>
+        <v>0.02862046257820942</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4335014026849833</v>
+        <v>0.4395461269225471</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>4</v>
@@ -1464,19 +1464,19 @@
         <v>2881</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1088</v>
+        <v>798</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>4463</v>
+        <v>4711</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.6114720320217095</v>
+        <v>0.6114720320217094</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2309905914081032</v>
+        <v>0.1693512282412269</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9473908589452031</v>
+        <v>1</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>7</v>
@@ -1485,19 +1485,19 @@
         <v>5889</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>2617</v>
+        <v>2614</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>10622</v>
+        <v>11002</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2632741194046484</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1169910318819985</v>
+        <v>0.1168635169251625</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4748492390172137</v>
+        <v>0.4918132208424776</v>
       </c>
     </row>
     <row r="15">
@@ -1589,19 +1589,19 @@
         <v>10136</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>6542</v>
+        <v>6562</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>12640</v>
+        <v>12711</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.7021750264048365</v>
+        <v>0.7021750264048366</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4531708220456948</v>
+        <v>0.4545999939395249</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8756583594956596</v>
+        <v>0.8805826045726494</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>8</v>
@@ -1610,19 +1610,19 @@
         <v>5105</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2376</v>
+        <v>2397</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>7831</v>
+        <v>7517</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4846106131596017</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2255765009385934</v>
+        <v>0.2275893539844462</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.743374939513704</v>
+        <v>0.7136062337292249</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>21</v>
@@ -1631,19 +1631,19 @@
         <v>15241</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>10838</v>
+        <v>10565</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>19210</v>
+        <v>19057</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.6103868794219526</v>
+        <v>0.6103868794219528</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.434041341174653</v>
+        <v>0.4231066844274747</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.769369403371028</v>
+        <v>0.7632376506231278</v>
       </c>
     </row>
     <row r="17">
@@ -1663,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3901</v>
+        <v>4168</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.08292888250373304</v>
@@ -1672,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2702708090694506</v>
+        <v>0.288716397356218</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1</v>
@@ -1684,7 +1684,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2748</v>
+        <v>2632</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.04871742548604874</v>
@@ -1693,7 +1693,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2608925475430858</v>
+        <v>0.2498809240700082</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>3</v>
@@ -1702,19 +1702,19 @@
         <v>1710</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5091</v>
+        <v>5259</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.06849542714953301</v>
+        <v>0.06849542714953302</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01897581604710977</v>
+        <v>0.01861951621980025</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2038774372718017</v>
+        <v>0.2106087062203601</v>
       </c>
     </row>
     <row r="18">
@@ -1731,19 +1731,19 @@
         <v>3102</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>897</v>
+        <v>1164</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>6539</v>
+        <v>7269</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2148960910914303</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.06216384483388952</v>
+        <v>0.08065552159745987</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.4529737779975138</v>
+        <v>0.5035523798352174</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>7</v>
@@ -1752,19 +1752,19 @@
         <v>4916</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>2326</v>
+        <v>2452</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>7465</v>
+        <v>7535</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.4666719613543496</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2208160772686317</v>
+        <v>0.2327529708351377</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.7086952493230745</v>
+        <v>0.7152916574982522</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>11</v>
@@ -1773,19 +1773,19 @@
         <v>8018</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>4304</v>
+        <v>4295</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>12363</v>
+        <v>12470</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.3211176934285143</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1723699087925633</v>
+        <v>0.172032818337744</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.495120677832483</v>
+        <v>0.4994135548394678</v>
       </c>
     </row>
     <row r="19">
@@ -1877,19 +1877,19 @@
         <v>9827</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>5753</v>
+        <v>5837</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>12457</v>
+        <v>12476</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7039515467836472</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4120914835336028</v>
+        <v>0.4181168310788995</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8923594378896474</v>
+        <v>0.893705231162139</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>12</v>
@@ -1898,19 +1898,19 @@
         <v>8030</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>4648</v>
+        <v>4873</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>10842</v>
+        <v>11084</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.5168832575872219</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.29917457636707</v>
+        <v>0.3137093475784233</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6979106426536595</v>
+        <v>0.7135047698577729</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>22</v>
@@ -1919,19 +1919,19 @@
         <v>17857</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>13267</v>
+        <v>12805</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>22398</v>
+        <v>21795</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6054224801406484</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.4498206584346328</v>
+        <v>0.4341501990122684</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7593892950487112</v>
+        <v>0.7389316745886232</v>
       </c>
     </row>
     <row r="21">
@@ -1948,19 +1948,19 @@
         <v>2447</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>466</v>
+        <v>490</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>6293</v>
+        <v>5959</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.1753110848922569</v>
+        <v>0.175311084892257</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.03334907335053414</v>
+        <v>0.03508582096324476</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.4507551679299541</v>
+        <v>0.4268450871090997</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>3</v>
@@ -1969,19 +1969,19 @@
         <v>1764</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>340</v>
+        <v>355</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>4521</v>
+        <v>4975</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1135489845918084</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.02187769426118051</v>
+        <v>0.02286387329696975</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2910352428524362</v>
+        <v>0.320236887888397</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>6</v>
@@ -1990,19 +1990,19 @@
         <v>4211</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>1471</v>
+        <v>1812</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>8711</v>
+        <v>8769</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1427809210539341</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.04987102866879332</v>
+        <v>0.06143065281477282</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2953264988029772</v>
+        <v>0.2973100585355249</v>
       </c>
     </row>
     <row r="22">
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>5624</v>
+        <v>5388</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1207373683240958</v>
@@ -2031,7 +2031,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4028819002777389</v>
+        <v>0.3859672746032825</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>10</v>
@@ -2040,19 +2040,19 @@
         <v>5741</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2949</v>
+        <v>2880</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>8709</v>
+        <v>8905</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3695677578209697</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1898592250095646</v>
+        <v>0.1854184824131572</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5605757288325645</v>
+        <v>0.5732122566515039</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>12</v>
@@ -2061,19 +2061,19 @@
         <v>7427</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>3950</v>
+        <v>3814</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>11552</v>
+        <v>11937</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2517965988054174</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1339171623352861</v>
+        <v>0.1293171421727981</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3916607079741585</v>
+        <v>0.4047291323891534</v>
       </c>
     </row>
     <row r="23">
@@ -2181,16 +2181,16 @@
         <v>0</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>4764</v>
+        <v>4532</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.160139514428957</v>
+        <v>0.1601395144289569</v>
       </c>
       <c r="O24" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.4407078034247446</v>
+        <v>0.4192798031755636</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>4</v>
@@ -2199,19 +2199,19 @@
         <v>2238</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>5021</v>
+        <v>4805</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1977982307047134</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.03528567908256617</v>
+        <v>0.0361084388098694</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.4437080253977317</v>
+        <v>0.4245910181343835</v>
       </c>
     </row>
     <row r="25">
@@ -2241,19 +2241,19 @@
         <v>1315</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>204</v>
+        <v>0</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>3864</v>
+        <v>3684</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1216854629474155</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01888326693353503</v>
+        <v>0</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.357518788645707</v>
+        <v>0.3407953109346409</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>3</v>
@@ -2265,7 +2265,7 @@
         <v>0</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>3749</v>
+        <v>3766</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1162291777634483</v>
@@ -2274,7 +2274,7 @@
         <v>0</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3313124805798102</v>
+        <v>0.3328109409573221</v>
       </c>
     </row>
     <row r="26">
@@ -2304,19 +2304,19 @@
         <v>7763</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>4756</v>
+        <v>4762</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>10107</v>
+        <v>10188</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.7181750226236278</v>
+        <v>0.7181750226236275</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.4399786046151423</v>
+        <v>0.4406008583767845</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9350099469087612</v>
+        <v>0.9425498412917512</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>8</v>
@@ -2325,19 +2325,19 @@
         <v>7762</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>4729</v>
+        <v>4650</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>10423</v>
+        <v>10374</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.6859725915318385</v>
+        <v>0.6859725915318383</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.4179474398369066</v>
+        <v>0.4109251006734725</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.921104772848655</v>
+        <v>0.9167978820300706</v>
       </c>
     </row>
     <row r="27">
@@ -2429,19 +2429,19 @@
         <v>45042</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>36721</v>
+        <v>35534</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>52092</v>
+        <v>52051</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.6604178593495731</v>
+        <v>0.6604178593495733</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.5384108253908525</v>
+        <v>0.521004662573467</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.7637942367961023</v>
+        <v>0.7631848579243622</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>31</v>
@@ -2450,19 +2450,19 @@
         <v>19928</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>13862</v>
+        <v>14055</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>26278</v>
+        <v>26420</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.3612219118547381</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.2512637927129573</v>
+        <v>0.254760029221492</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.4763340765733873</v>
+        <v>0.478898430887385</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>82</v>
@@ -2471,19 +2471,19 @@
         <v>64970</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>54487</v>
+        <v>54007</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>75331</v>
+        <v>74857</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.5266252310415024</v>
+        <v>0.5266252310415025</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.4416524095194917</v>
+        <v>0.4377668224045643</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.6106141522445304</v>
+        <v>0.6067710367050366</v>
       </c>
     </row>
     <row r="29">
@@ -2500,19 +2500,19 @@
         <v>14430</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>8984</v>
+        <v>8534</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>23476</v>
+        <v>23433</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2115807135263945</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1317291363678173</v>
+        <v>0.1251276620505174</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3442093984995179</v>
+        <v>0.3435808296974716</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>11</v>
@@ -2521,19 +2521,19 @@
         <v>6213</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3017</v>
+        <v>3193</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>10583</v>
+        <v>10931</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1126122119246294</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.05468503715877323</v>
+        <v>0.05788057744261654</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.19183365383377</v>
+        <v>0.1981423088690397</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>26</v>
@@ -2542,19 +2542,19 @@
         <v>20643</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>13759</v>
+        <v>14089</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>30464</v>
+        <v>31155</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.1673245795116106</v>
+        <v>0.1673245795116107</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1115270578785748</v>
+        <v>0.1142000120055038</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2469311564288234</v>
+        <v>0.2525311950681065</v>
       </c>
     </row>
     <row r="30">
@@ -2571,19 +2571,19 @@
         <v>8730</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>4703</v>
+        <v>4722</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>15280</v>
+        <v>15650</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.1280014271240324</v>
+        <v>0.1280014271240325</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.06895801508824635</v>
+        <v>0.06923515605625745</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2240352116699997</v>
+        <v>0.2294678950273249</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>39</v>
@@ -2592,19 +2592,19 @@
         <v>29028</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>22666</v>
+        <v>22511</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>35897</v>
+        <v>35989</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.5261658762206326</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.4108621732254649</v>
+        <v>0.4080388066153671</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.6506844006877702</v>
+        <v>0.6523472263698137</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>50</v>
@@ -2613,19 +2613,19 @@
         <v>37757</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>28768</v>
+        <v>28759</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>48923</v>
+        <v>49719</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.3060501894468869</v>
+        <v>0.306050189446887</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2331857158195094</v>
+        <v>0.2331077342888032</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3965511463075528</v>
+        <v>0.4030053376582154</v>
       </c>
     </row>
     <row r="31">
